--- a/packages/storybook/stories/data/empty.xlsx
+++ b/packages/storybook/stories/data/empty.xlsx
@@ -1,16 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ag\packages\storybook\stories\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="14085"/>
-  </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
     <sheet name="banks" sheetId="2" r:id="rId2"/>
@@ -20,129 +11,15 @@
     <sheet name="settings" sheetId="6" r:id="rId6"/>
     <sheet name="transactions" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>_deleted</t>
-  </si>
-  <si>
-    <t>_history</t>
-  </si>
-  <si>
-    <t>bankId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>routing</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>sortOrder</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>fid</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>ofx</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>favicon</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>rruleString</t>
-  </si>
-  <si>
-    <t>showAdvanced</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>accountId</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>serverid</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,14 +56,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -511,333 +380,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_history</v>
+      </c>
+      <c r="D1" t="str">
+        <v>bankId</v>
+      </c>
+      <c r="E1" t="str">
+        <v>name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>color</v>
+      </c>
+      <c r="G1" t="str">
+        <v>type</v>
+      </c>
+      <c r="H1" t="str">
+        <v>number</v>
+      </c>
+      <c r="I1" t="str">
+        <v>visible</v>
+      </c>
+      <c r="J1" t="str">
+        <v>routing</v>
+      </c>
+      <c r="K1" t="str">
+        <v>key</v>
+      </c>
+      <c r="L1" t="str">
+        <v>sortOrder</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_history</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>web</v>
+      </c>
+      <c r="F1" t="str">
+        <v>address</v>
+      </c>
+      <c r="G1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="H1" t="str">
+        <v>icon</v>
+      </c>
+      <c r="I1" t="str">
+        <v>online</v>
+      </c>
+      <c r="J1" t="str">
+        <v>fid</v>
+      </c>
+      <c r="K1" t="str">
+        <v>org</v>
+      </c>
+      <c r="L1" t="str">
+        <v>ofx</v>
+      </c>
+      <c r="M1" t="str">
+        <v>username</v>
+      </c>
+      <c r="N1" t="str">
+        <v>password</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Q1 O2:Q2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_history</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>group</v>
+      </c>
+      <c r="F1" t="str">
+        <v>web</v>
+      </c>
+      <c r="G1" t="str">
+        <v>favicon</v>
+      </c>
+      <c r="H1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="I1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="J1" t="str">
+        <v>account</v>
+      </c>
+      <c r="K1" t="str">
+        <v>category</v>
+      </c>
+      <c r="L1" t="str">
+        <v>rruleString</v>
+      </c>
+      <c r="M1" t="str">
+        <v>showAdvanced</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_history</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>sortOrder</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_history</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>amount</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>key</v>
+      </c>
+      <c r="B1" t="str">
+        <v>value</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_history</v>
+      </c>
+      <c r="D1" t="str">
+        <v>accountId</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time</v>
+      </c>
+      <c r="F1" t="str">
+        <v>account</v>
+      </c>
+      <c r="G1" t="str">
+        <v>serverid</v>
+      </c>
+      <c r="H1" t="str">
+        <v>type</v>
+      </c>
+      <c r="I1" t="str">
+        <v>name</v>
+      </c>
+      <c r="J1" t="str">
+        <v>memo</v>
+      </c>
+      <c r="K1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="L1" t="str">
+        <v>balance</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/packages/storybook/stories/data/empty.xlsx
+++ b/packages/storybook/stories/data/empty.xlsx
@@ -1,7 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ag\packages\storybook\stories\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100" activeTab="2"/>
+  </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
     <sheet name="banks" sheetId="2" r:id="rId2"/>
@@ -11,15 +20,120 @@
     <sheet name="settings" sheetId="6" r:id="rId6"/>
     <sheet name="transactions" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>_deleted</t>
+  </si>
+  <si>
+    <t>_history</t>
+  </si>
+  <si>
+    <t>bankId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>routing</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sortOrder</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>ofx</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>showAdvanced</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>serverid</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>rrule</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +170,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,302 +502,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_history</v>
-      </c>
-      <c r="D1" t="str">
-        <v>bankId</v>
-      </c>
-      <c r="E1" t="str">
-        <v>name</v>
-      </c>
-      <c r="F1" t="str">
-        <v>color</v>
-      </c>
-      <c r="G1" t="str">
-        <v>type</v>
-      </c>
-      <c r="H1" t="str">
-        <v>number</v>
-      </c>
-      <c r="I1" t="str">
-        <v>visible</v>
-      </c>
-      <c r="J1" t="str">
-        <v>routing</v>
-      </c>
-      <c r="K1" t="str">
-        <v>key</v>
-      </c>
-      <c r="L1" t="str">
-        <v>sortOrder</v>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError sqref="A1:L1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_history</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>web</v>
-      </c>
-      <c r="F1" t="str">
-        <v>address</v>
-      </c>
-      <c r="G1" t="str">
-        <v>notes</v>
-      </c>
-      <c r="H1" t="str">
-        <v>icon</v>
-      </c>
-      <c r="I1" t="str">
-        <v>online</v>
-      </c>
-      <c r="J1" t="str">
-        <v>fid</v>
-      </c>
-      <c r="K1" t="str">
-        <v>org</v>
-      </c>
-      <c r="L1" t="str">
-        <v>ofx</v>
-      </c>
-      <c r="M1" t="str">
-        <v>username</v>
-      </c>
-      <c r="N1" t="str">
-        <v>password</v>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N1"/>
+    <ignoredError sqref="A1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_history</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>group</v>
-      </c>
-      <c r="F1" t="str">
-        <v>web</v>
-      </c>
-      <c r="G1" t="str">
-        <v>favicon</v>
-      </c>
-      <c r="H1" t="str">
-        <v>notes</v>
-      </c>
-      <c r="I1" t="str">
-        <v>amount</v>
-      </c>
-      <c r="J1" t="str">
-        <v>account</v>
-      </c>
-      <c r="K1" t="str">
-        <v>category</v>
-      </c>
-      <c r="L1" t="str">
-        <v>rruleString</v>
-      </c>
-      <c r="M1" t="str">
-        <v>showAdvanced</v>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M1"/>
+    <ignoredError sqref="A1:F1 M1 H1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_history</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>sortOrder</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
+    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_history</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>amount</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
+    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>value</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_history</v>
-      </c>
-      <c r="D1" t="str">
-        <v>accountId</v>
-      </c>
-      <c r="E1" t="str">
-        <v>time</v>
-      </c>
-      <c r="F1" t="str">
-        <v>account</v>
-      </c>
-      <c r="G1" t="str">
-        <v>serverid</v>
-      </c>
-      <c r="H1" t="str">
-        <v>type</v>
-      </c>
-      <c r="I1" t="str">
-        <v>name</v>
-      </c>
-      <c r="J1" t="str">
-        <v>memo</v>
-      </c>
-      <c r="K1" t="str">
-        <v>amount</v>
-      </c>
-      <c r="L1" t="str">
-        <v>balance</v>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError sqref="A1:L1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/packages/storybook/stories/data/empty.xlsx
+++ b/packages/storybook/stories/data/empty.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>rrule</t>
+  </si>
+  <si>
+    <t>currencyCode</t>
   </si>
 </sst>
 </file>
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,14 +547,17 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:L1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -561,9 +567,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,13 +625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,9 +686,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,9 +719,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,9 +752,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -770,9 +776,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
